--- a/biology/Botanique/Clérodendron_grimpant/Clérodendron_grimpant.xlsx
+++ b/biology/Botanique/Clérodendron_grimpant/Clérodendron_grimpant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cl%C3%A9rodendron_grimpant</t>
+          <t>Clérodendron_grimpant</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clerodendrum thomsoniae
 Le clérodendron grimpant (Clerodendrum thomsoniae) est une espèce de plante grimpante volubile pouvant atteindre 4 m de haut.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cl%C3%A9rodendron_grimpant</t>
+          <t>Clérodendron_grimpant</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,12 +526,14 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Nom scientifique valide : Clerodendrum thomsoniae Balf.f.[1]
-Noms vulgaires (vulgarisation scientifique) recommandé ou typique en français : clérodendron grimpant[2],[3].
-Autres noms vulgaires ou noms vernaculaires (langage courant) pouvant désigner éventuellement d'autres espèces : coeur de Marie[2],[4], clérodendron de Thomson[2].
-Synonymes scientifiques[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Nom scientifique valide : Clerodendrum thomsoniae Balf.f.
+Noms vulgaires (vulgarisation scientifique) recommandé ou typique en français : clérodendron grimpant,.
+Autres noms vulgaires ou noms vernaculaires (langage courant) pouvant désigner éventuellement d'autres espèces : coeur de Marie clérodendron de Thomson.
+Synonymes scientifiques :
 Clerodendrum balfourii (B.D.Jacks. ex Dombrain) Dombrain, synonyme hétérotypique
 Clerodendrum delectum Pynaert, synonyme hétérotypique
 Clerodendrum thomsoniae var. balfourii B.D.Jacks. ex Dombrain, synonyme hétérotypique</t>
